--- a/resource/主角/主角属性表.xlsx
+++ b/resource/主角/主角属性表.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="7020" windowHeight="9270"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="8000" windowHeight="9280"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Role" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>等级</t>
   </si>
@@ -25,14 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>匹配消耗物品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每格带兵量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,14 +37,66 @@
   </si>
   <si>
     <t>体力恢复/分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical_recover_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,7 +135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -101,9 +148,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -186,7 +236,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="7DC752"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -462,502 +512,516 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="36.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>500</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B5" s="2">
+        <v>1800</v>
+      </c>
+      <c r="C5" s="2">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B6" s="2">
+        <v>4800</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>500</v>
-      </c>
-      <c r="C2" s="2">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="B7" s="2">
+        <v>9000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>16000</v>
+      </c>
+      <c r="C8" s="2">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>27000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1800</v>
-      </c>
-      <c r="C3" s="2">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="B10" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C10" s="2">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>78000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4800</v>
-      </c>
-      <c r="C4" s="2">
-        <v>50</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="B12" s="2">
+        <v>112000</v>
+      </c>
+      <c r="C12" s="2">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>152000</v>
+      </c>
+      <c r="C13" s="2">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>9000</v>
-      </c>
-      <c r="C5" s="2">
-        <v>50</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="B14" s="2">
+        <v>200000</v>
+      </c>
+      <c r="C14" s="2">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>257000</v>
+      </c>
+      <c r="C15" s="2">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>16000</v>
-      </c>
-      <c r="C6" s="2">
-        <v>50</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="B16" s="2">
+        <v>325000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>405000</v>
+      </c>
+      <c r="C17" s="2">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>27000</v>
-      </c>
-      <c r="C7" s="2">
-        <v>50</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="B18" s="2">
+        <v>501000</v>
+      </c>
+      <c r="C18" s="2">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>615000</v>
+      </c>
+      <c r="C19" s="2">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>50000</v>
-      </c>
-      <c r="C8" s="2">
-        <v>50</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="B20" s="2">
+        <v>750000</v>
+      </c>
+      <c r="C20" s="2">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>909000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>78000</v>
-      </c>
-      <c r="C9" s="2">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="B22" s="2">
+        <v>1096000</v>
+      </c>
+      <c r="C22" s="2">
+        <v>50</v>
+      </c>
+      <c r="F22" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1316000</v>
+      </c>
+      <c r="C23" s="2">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>112000</v>
-      </c>
-      <c r="C10" s="2">
-        <v>50</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="B24" s="2">
+        <v>1573000</v>
+      </c>
+      <c r="C24" s="2">
+        <v>50</v>
+      </c>
+      <c r="F24" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1873000</v>
+      </c>
+      <c r="C25" s="2">
+        <v>50</v>
+      </c>
+      <c r="F25" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>152000</v>
-      </c>
-      <c r="C11" s="2">
-        <v>50</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="B26" s="2">
+        <v>2222000</v>
+      </c>
+      <c r="C26" s="2">
+        <v>50</v>
+      </c>
+      <c r="F26" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2626000</v>
+      </c>
+      <c r="C27" s="2">
+        <v>50</v>
+      </c>
+      <c r="F27" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>200000</v>
-      </c>
-      <c r="C12" s="2">
-        <v>50</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="B28" s="2">
+        <v>3092000</v>
+      </c>
+      <c r="C28" s="2">
+        <v>50</v>
+      </c>
+      <c r="F28" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3627000</v>
+      </c>
+      <c r="C29" s="2">
+        <v>50</v>
+      </c>
+      <c r="F29" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>257000</v>
-      </c>
-      <c r="C13" s="2">
-        <v>50</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="B30" s="2">
+        <v>4239000</v>
+      </c>
+      <c r="C30" s="2">
+        <v>50</v>
+      </c>
+      <c r="F30" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4938000</v>
+      </c>
+      <c r="C31" s="2">
+        <v>50</v>
+      </c>
+      <c r="F31" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>325000</v>
-      </c>
-      <c r="C14" s="2">
-        <v>50</v>
-      </c>
-      <c r="G14" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>405000</v>
-      </c>
-      <c r="C15" s="2">
-        <v>50</v>
-      </c>
-      <c r="G15" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>501000</v>
-      </c>
-      <c r="C16" s="2">
-        <v>50</v>
-      </c>
-      <c r="G16" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>615000</v>
-      </c>
-      <c r="C17" s="2">
-        <v>50</v>
-      </c>
-      <c r="G17" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>750000</v>
-      </c>
-      <c r="C18" s="2">
-        <v>50</v>
-      </c>
-      <c r="G18" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>909000</v>
-      </c>
-      <c r="C19" s="2">
-        <v>50</v>
-      </c>
-      <c r="G19" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1096000</v>
-      </c>
-      <c r="C20" s="2">
-        <v>50</v>
-      </c>
-      <c r="G20" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1316000</v>
-      </c>
-      <c r="C21" s="2">
-        <v>50</v>
-      </c>
-      <c r="G21" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1573000</v>
-      </c>
-      <c r="C22" s="2">
-        <v>50</v>
-      </c>
-      <c r="G22" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1873000</v>
-      </c>
-      <c r="C23" s="2">
-        <v>50</v>
-      </c>
-      <c r="G23" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2222000</v>
-      </c>
-      <c r="C24" s="2">
-        <v>50</v>
-      </c>
-      <c r="G24" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2626000</v>
-      </c>
-      <c r="C25" s="2">
-        <v>50</v>
-      </c>
-      <c r="G25" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>3092000</v>
-      </c>
-      <c r="C26" s="2">
-        <v>50</v>
-      </c>
-      <c r="G26" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>3627000</v>
-      </c>
-      <c r="C27" s="2">
-        <v>50</v>
-      </c>
-      <c r="G27" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>4239000</v>
-      </c>
-      <c r="C28" s="2">
-        <v>50</v>
-      </c>
-      <c r="G28" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
-        <v>4938000</v>
-      </c>
-      <c r="C29" s="2">
-        <v>50</v>
-      </c>
-      <c r="G29" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="B32" s="2">
         <v>5732000</v>
       </c>
-      <c r="C30" s="2">
-        <v>50</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="C32" s="2">
+        <v>50</v>
+      </c>
+      <c r="F32" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2">
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B33" s="1">
         <v>999999999</v>
       </c>
-      <c r="C31" s="2">
-        <v>50</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="C33" s="2">
+        <v>50</v>
+      </c>
+      <c r="F33" s="2">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>